--- a/CBMCenterApi/wwwroot/ExcelTempate/计量设备信息表.xlsx
+++ b/CBMCenterApi/wwwroot/ExcelTempate/计量设备信息表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwwroot\WCBMWebApi\CBMCenterApi\wwwroot\ExcelTempate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E9546-EB8A-4713-BBBB-841E116AD0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87321CFB-A39E-449E-8CB2-8D269FDA5F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="计量设备信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计量设备信息!$A$2:$AM$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计量设备信息!$A$2:$AH$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>序号</t>
   </si>
@@ -98,27 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>末检日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期（月）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检定单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检定证书编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关设计图</t>
+    <t>安装条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -528,19 +508,14 @@
     <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="19.2">
+    <row r="1" spans="1:24" ht="19.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -567,13 +542,8 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,42 +599,27 @@
         <v>17</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
